--- a/data/trans_dic/P7B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P7B_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas &lt; 16 años</t>
+          <t>Hogares con personas &lt; 16 años (tasa de respuesta: 99,81%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,69%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>16,87%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>17,7%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>22,96%</t>
+          <t>17,78%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>25,01%</t>
+          <t>19,11%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25,16%</t>
+          <t>19,12%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>17,07%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>18,44%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>19,75%</t>
+          <t>18,49%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,72; 31,33</t>
+          <t>6,54; 34,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,81; 29,19</t>
+          <t>6,5; 34,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,1; 26,8</t>
+          <t>6,88; 35,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,52; 26,32</t>
+          <t>6,46; 37,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,35; 33,15</t>
+          <t>8,66; 31,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,57; 35,96</t>
+          <t>8,16; 30,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,16; 36,31</t>
+          <t>9,48; 33,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,53; 36,27</t>
+          <t>9,87; 33,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,32; 28,4</t>
+          <t>9,67; 28,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,04; 28,85</t>
+          <t>9,55; 27,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,34; 27,61</t>
+          <t>10,91; 29,11</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,19; 26,69</t>
+          <t>10,85; 30,22</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>36,13%</t>
+          <t>37,95%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>37,41%</t>
+          <t>39,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>34,59%</t>
+          <t>35,63%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>34,27%</t>
+          <t>35,34%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>57,98%</t>
+          <t>52,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>59,24%</t>
+          <t>51,78%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>58,6%</t>
+          <t>51,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>58,61%</t>
+          <t>52,1%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>47,35%</t>
+          <t>44,91%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>48,85%</t>
+          <t>45,36%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>46,5%</t>
+          <t>43,15%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>45,88%</t>
+          <t>42,88%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,65; 55,59</t>
+          <t>22,25; 63,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,94; 56,96</t>
+          <t>21,28; 66,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,12; 51,0</t>
+          <t>19,44; 60,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,25; 52,73</t>
+          <t>18,2; 62,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>47,67; 68,4</t>
+          <t>38,21; 65,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,79; 70,21</t>
+          <t>38,6; 65,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>48,1; 69,59</t>
+          <t>38,18; 65,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,18; 69,56</t>
+          <t>38,76; 65,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>38,77; 56,94</t>
+          <t>32,96; 60,21</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>40,13; 58,84</t>
+          <t>32,07; 60,03</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>37,8; 56,21</t>
+          <t>30,6; 57,47</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>36,39; 56,06</t>
+          <t>28,75; 57,84</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>66,24%</t>
+          <t>66,44%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>69,54%</t>
+          <t>66,71%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>67,29%</t>
+          <t>67,44%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>67,45%</t>
+          <t>66,45%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>82,8%</t>
+          <t>85,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>82,94%</t>
+          <t>86,17%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>82,4%</t>
+          <t>85,96%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>82,09%</t>
+          <t>85,8%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>75,15%</t>
+          <t>78,07%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>76,56%</t>
+          <t>78,77%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>75,32%</t>
+          <t>78,79%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>74,94%</t>
+          <t>77,93%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>55,62; 75,57</t>
+          <t>53,38; 77,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>57,57; 79,66</t>
+          <t>53,68; 77,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>54,03; 77,03</t>
+          <t>53,94; 79,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>54,52; 77,68</t>
+          <t>53,36; 78,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>75,83; 88,81</t>
+          <t>76,82; 91,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>75,98; 88,83</t>
+          <t>78,45; 91,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>74,99; 88,3</t>
+          <t>78,01; 91,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>74,68; 88,12</t>
+          <t>77,94; 91,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>68,92; 80,68</t>
+          <t>70,4; 83,9</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>69,11; 82,38</t>
+          <t>71,75; 84,46</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>68,09; 81,17</t>
+          <t>71,93; 85,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>67,15; 80,86</t>
+          <t>70,5; 83,72</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>43,66%</t>
+          <t>44,75%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>43,38%</t>
+          <t>43,83%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>44,39%</t>
+          <t>44,22%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>44,57%</t>
+          <t>45,03%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>33,55%</t>
+          <t>35,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>33,46%</t>
+          <t>36,65%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,22%</t>
+          <t>34,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>31,53%</t>
+          <t>33,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>38,1%</t>
+          <t>39,82%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>37,87%</t>
+          <t>39,94%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>37,75%</t>
+          <t>39,12%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>37,62%</t>
+          <t>38,89%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>35,72; 53,02</t>
+          <t>33,61; 54,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,65; 52,36</t>
+          <t>32,37; 55,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,62; 53,42</t>
+          <t>32,77; 55,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>36,88; 53,82</t>
+          <t>33,54; 56,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,47; 40,4</t>
+          <t>27,69; 45,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,2; 40,5</t>
+          <t>28,62; 46,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,46; 40,36</t>
+          <t>26,25; 44,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,5; 39,01</t>
+          <t>24,6; 43,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>32,78; 43,92</t>
+          <t>32,64; 46,73</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>32,27; 43,03</t>
+          <t>33,2; 48,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>32,31; 43,4</t>
+          <t>32,16; 46,17</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,17; 43,03</t>
+          <t>31,93; 46,02</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>14,15%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>8,51%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,74; 10,27</t>
+          <t>1,39; 13,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,42; 10,96</t>
+          <t>1,39; 13,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,8; 9,92</t>
+          <t>1,36; 13,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,69; 9,5</t>
+          <t>1,31; 12,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,67; 14,68</t>
+          <t>6,41; 26,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,36; 13,87</t>
+          <t>6,22; 25,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,37; 14,69</t>
+          <t>6,84; 26,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,92; 14,42</t>
+          <t>6,08; 24,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,79; 10,58</t>
+          <t>4,88; 15,71</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,98; 10,73</t>
+          <t>4,56; 15,02</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,73; 10,73</t>
+          <t>4,78; 15,65</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,44; 10,43</t>
+          <t>4,26; 15,25</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>8,28%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,12</t>
+          <t>0,0; 13,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,14; 9,62</t>
+          <t>0,0; 13,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,09; 9,53</t>
+          <t>0,0; 12,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,39; 11,3</t>
+          <t>0,0; 16,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,09; 11,82</t>
+          <t>2,41; 23,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,13; 11,18</t>
+          <t>2,43; 25,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,13; 14,44</t>
+          <t>2,44; 28,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,01; 12,26</t>
+          <t>2,41; 28,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,19; 8,38</t>
+          <t>2,47; 15,44</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,59; 8,8</t>
+          <t>2,56; 16,89</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,65; 10,41</t>
+          <t>2,51; 18,17</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,77; 10,06</t>
+          <t>3,0; 18,52</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>31,49%</t>
+          <t>32,14%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>33,42%</t>
+          <t>32,01%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>31,73%</t>
+          <t>31,44%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>31,54%</t>
+          <t>31,76%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>37,57%</t>
+          <t>42,31%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>39,21%</t>
+          <t>43,01%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>38,34%</t>
+          <t>42,68%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>37,07%</t>
+          <t>41,62%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>34,73%</t>
+          <t>37,58%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>36,48%</t>
+          <t>37,93%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>35,17%</t>
+          <t>37,31%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>34,36%</t>
+          <t>36,78%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>27,45; 35,91</t>
+          <t>26,8; 39,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>29,01; 38,72</t>
+          <t>25,82; 39,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>27,46; 36,71</t>
+          <t>25,67; 38,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>26,87; 36,77</t>
+          <t>25,22; 38,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>33,75; 41,14</t>
+          <t>36,9; 47,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>35,42; 42,71</t>
+          <t>37,77; 48,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>34,22; 42,31</t>
+          <t>37,89; 47,59</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>32,53; 41,03</t>
+          <t>36,73; 46,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>31,88; 37,51</t>
+          <t>33,76; 41,55</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>33,24; 39,53</t>
+          <t>33,87; 42,05</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>32,28; 38,12</t>
+          <t>33,46; 41,19</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>31,24; 37,59</t>
+          <t>32,78; 40,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1639,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas &lt; 16 años (tasa de respuesta: 99,81%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>14586</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>18057</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>18716</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>22832</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>20897</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>23090</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>21938</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>22481</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>35483</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>41147</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>40655</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>45313</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5628; 29680</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6956; 36591</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7269; 37148</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8238; 47344</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>10185; 36990</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>10936; 40868</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>10886; 38134</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>11601; 39574</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>19693; 57572</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>23019; 66927</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>24061; 64190</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>26585; 74071</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>51928</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>65951</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>51093</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>54521</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>69379</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>85495</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>65458</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>65805</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>121307</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>151445</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>116551</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>120326</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>30439; 87183</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>35903; 112329</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>27880; 87050</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>28076; 96088</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>50938; 87041</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>63723; 108299</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>48376; 82587</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>48961; 83327</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>89028; 162649</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>107076; 200415</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>82639; 155236</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>80661; 162296</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>92840</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>108114</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>89180</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>91467</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>184417</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>227548</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>179963</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>172006</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>277257</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>335663</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>269143</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>263473</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>74588; 108312</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>86999; 126083</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>71327; 104584</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>73447; 107642</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>165476; 197636</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>207163; 242813</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>163318; 191985</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>156244; 183750</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>249994; 297958</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>305743; 359886</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>245702; 290368</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>238373; 283054</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>73165</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>80814</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>70504</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>69516</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>68111</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>80038</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>63141</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>56178</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>141276</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>160852</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>133645</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>125694</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>54939; 89507</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>59685; 102260</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>52251; 88818</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>51775; 87197</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>52968; 86915</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>62499; 101188</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>47827; 80609</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>41532; 72871</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>115793; 165771</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>133735; 193307</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>109880; 157731</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>103190; 148753</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>7773</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8634</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>7390</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>6671</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>14643</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>15581</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>13380</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>11705</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>22416</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>24215</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>20770</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>18376</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1934; 18509</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2193; 20649</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1795; 17198</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1612; 15616</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6631; 27559</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>7223; 29507</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>6413; 25061</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5632; 22877</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>11824; 38076</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>12470; 41092</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>10795; 35360</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>9199; 32923</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2440</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2987</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2156</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4958</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>9802</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>13533</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>11186</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>11673</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>12242</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>16520</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>13341</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>16631</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 12139</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 14849</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 10902</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 14917</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2584; 25512</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>3342; 35219</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2568; 29663</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2669; 31180</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>4863; 30452</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>6331; 41692</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>4822; 34971</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>6016; 37185</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>266.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>242733</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>284557</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>239038</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>249965</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>367248</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>445284</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>355067</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>339848</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>609981</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>729841</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>594104</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>589813</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>202452; 295680</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>229500; 347840</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>195154; 289818</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>198546; 304973</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>320296; 408264</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>391037; 496985</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>315239; 395921</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>299928; 381222</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>547964; 674509</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>651738; 809093</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>532759; 655838</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>525744; 656738</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>